--- a/data/trans_dic/P12_3_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P12_3_R-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02729645331962775</v>
+        <v>0.02748652592810289</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06420009598866445</v>
+        <v>0.06530090566428919</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07377194609560513</v>
+        <v>0.07450914327396761</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07879068974638773</v>
+        <v>0.0764571018787998</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04251885757622082</v>
+        <v>0.04178989929079255</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1146833311976996</v>
+        <v>0.1142475383600596</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1142867076454424</v>
+        <v>0.1149664751990194</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1043026428263499</v>
+        <v>0.1074289367549602</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03756932851673322</v>
+        <v>0.03813083026175368</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.09465347540679529</v>
+        <v>0.09381171320232995</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1013964898648177</v>
+        <v>0.1000603871573612</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.09867910817238723</v>
+        <v>0.09757666023192701</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05738328398809518</v>
+        <v>0.05616470554543417</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1042409191607454</v>
+        <v>0.1068520663635276</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1180841942038237</v>
+        <v>0.1213184630939662</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1252874752272511</v>
+        <v>0.1250810488115496</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07623120824076199</v>
+        <v>0.0758275322680797</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.171164484651245</v>
+        <v>0.1695383202568747</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1699734707260518</v>
+        <v>0.1684612117496235</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1438950436394514</v>
+        <v>0.1457641223032805</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05944397033789175</v>
+        <v>0.06105756965115642</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1301394854098106</v>
+        <v>0.1289516994771011</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1359746446771253</v>
+        <v>0.1373538201402467</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1282900958812456</v>
+        <v>0.127562456812911</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.05577743405127877</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.09192014859507305</v>
+        <v>0.09192014859507304</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.08779672565831571</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04630595783520707</v>
+        <v>0.04517721868528215</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06489503658452468</v>
+        <v>0.06463041049805598</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04298917623677449</v>
+        <v>0.04211726888300527</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07562301530747888</v>
+        <v>0.07462625919524146</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07036562375229105</v>
+        <v>0.07148077202251997</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1167611123574122</v>
+        <v>0.1157608392191972</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07498156766130259</v>
+        <v>0.07373704368394103</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1352320982402606</v>
+        <v>0.1360869671433015</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06255550898484911</v>
+        <v>0.06236693063221697</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.09445637118643704</v>
+        <v>0.09580696791619488</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06254674121143353</v>
+        <v>0.06354391711037305</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1099348912605634</v>
+        <v>0.1092538713472782</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07610776691552301</v>
+        <v>0.07699865706497244</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1010491454027306</v>
+        <v>0.100033337873166</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07223067404697826</v>
+        <v>0.07045902683115668</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1123694171502192</v>
+        <v>0.1123823861316267</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1083899859930581</v>
+        <v>0.1091238934728885</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1592252870962821</v>
+        <v>0.1594139670870925</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1135920741807588</v>
+        <v>0.1121883885149843</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1734382305412681</v>
+        <v>0.1729943451406318</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08633671248915017</v>
+        <v>0.08678290802610995</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1225979566322513</v>
+        <v>0.1249035652819664</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.08793083410106177</v>
+        <v>0.0875759909833892</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1364713388669118</v>
+        <v>0.1359774573812935</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03539228339196694</v>
+        <v>0.03540083712484245</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04927738916111818</v>
+        <v>0.04994642210756834</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05162118329453567</v>
+        <v>0.05203674496169941</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08505848266756286</v>
+        <v>0.08573729757655631</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05705534098302508</v>
+        <v>0.05777719794893153</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09269359814575531</v>
+        <v>0.09320146033755816</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.08508969434506611</v>
+        <v>0.08749870471060658</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1038971429572653</v>
+        <v>0.1034186778136398</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05206195608974751</v>
+        <v>0.05091414048317652</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.0765156551124563</v>
+        <v>0.07634979452342988</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.07471987975353153</v>
+        <v>0.07397425575029211</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1006309059215994</v>
+        <v>0.1019640057512704</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07154314898068116</v>
+        <v>0.07055472568300367</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08850547040691746</v>
+        <v>0.08750959976094155</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09073929410201961</v>
+        <v>0.09082477860980172</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1372923680709282</v>
+        <v>0.1362860992974582</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.09591999702722351</v>
+        <v>0.09761206286402038</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1415324473442981</v>
+        <v>0.1409179235293738</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1362752515366879</v>
+        <v>0.1325149482284608</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1467942205128158</v>
+        <v>0.145119705373073</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07916469016246065</v>
+        <v>0.07808014122957531</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1073474392977651</v>
+        <v>0.1096779546805232</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1050477098065337</v>
+        <v>0.1049438343178369</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1340557642716499</v>
+        <v>0.1370851279582256</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03667242461078072</v>
+        <v>0.03720352595969521</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06991545043531197</v>
+        <v>0.06974368461784584</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06581130993652555</v>
+        <v>0.06583826767178047</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1026122091990069</v>
+        <v>0.1025161169696008</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08776231064881469</v>
+        <v>0.08699124841540604</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1189281667352219</v>
+        <v>0.118648864683288</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1136955778374908</v>
+        <v>0.1129226095813962</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1508502938049362</v>
+        <v>0.1495292352404285</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06771399484038138</v>
+        <v>0.06778093341547807</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.101555500217303</v>
+        <v>0.1019461046571235</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.09592888531452523</v>
+        <v>0.09624849701901676</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.134201102872707</v>
+        <v>0.1330812903383777</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06379953494724225</v>
+        <v>0.06394929586812002</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1084745847083827</v>
+        <v>0.1083367661513626</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1007419107197458</v>
+        <v>0.1016892358967994</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.147783481847604</v>
+        <v>0.1455424741467411</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1260644450738432</v>
+        <v>0.1264380716226019</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1646764857691858</v>
+        <v>0.1615009305571981</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1602769018609669</v>
+        <v>0.1573518308497611</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1914569392475531</v>
+        <v>0.1899590260848275</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.09173145566599224</v>
+        <v>0.09263515698148285</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1310452413270226</v>
+        <v>0.1320420998689903</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1263655763539309</v>
+        <v>0.1253059428059111</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1632915431025896</v>
+        <v>0.1623055336552422</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04347079510922459</v>
+        <v>0.04311919240961611</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07131369729287801</v>
+        <v>0.07197368829650015</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06517420310489319</v>
+        <v>0.0652781056160829</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09544437701829278</v>
+        <v>0.09516980039803112</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07630781500932482</v>
+        <v>0.07464912022895212</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1218722997216838</v>
+        <v>0.1221262719100681</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1067075176426601</v>
+        <v>0.1060105785833267</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1374014502238998</v>
+        <v>0.1370951098210079</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06151477481106755</v>
+        <v>0.06140327427333837</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.09987682751577415</v>
+        <v>0.09982736209948989</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.08933909286287554</v>
+        <v>0.08859135797288953</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1189495062954226</v>
+        <v>0.1198160033536074</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05878697006560134</v>
+        <v>0.05893917124732632</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09135638670947459</v>
+        <v>0.09042814050316984</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08345201846003837</v>
+        <v>0.08261559851305625</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1159597122811686</v>
+        <v>0.1168100919059388</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.09491238670497443</v>
+        <v>0.09362382835817423</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1451936422194225</v>
+        <v>0.1446609208203272</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1303490909521384</v>
+        <v>0.129164080107258</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.156993576562415</v>
+        <v>0.1564296825999885</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07437778645193248</v>
+        <v>0.07452005113067418</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1152419119481012</v>
+        <v>0.114866001045333</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1029315984989935</v>
+        <v>0.1034987483551263</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.133926100006545</v>
+        <v>0.134167952996326</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>18944</v>
+        <v>19076</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>45101</v>
+        <v>45874</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>49617</v>
+        <v>50112</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>54303</v>
+        <v>52695</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>29268</v>
+        <v>28766</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>79715</v>
+        <v>79412</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>76699</v>
+        <v>77155</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>76271</v>
+        <v>78557</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>51934</v>
+        <v>52711</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>132287</v>
+        <v>131111</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>136244</v>
+        <v>134449</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>140169</v>
+        <v>138603</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>39825</v>
+        <v>38979</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>73230</v>
+        <v>75064</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>79419</v>
+        <v>81595</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>86349</v>
+        <v>86207</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>52474</v>
+        <v>52196</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>118975</v>
+        <v>117844</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>114071</v>
+        <v>113057</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>105223</v>
+        <v>106589</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>82173</v>
+        <v>84404</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>181882</v>
+        <v>180222</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>182706</v>
+        <v>184559</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>182230</v>
+        <v>181196</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>44537</v>
+        <v>43451</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>65913</v>
+        <v>65644</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>43911</v>
+        <v>43020</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>79286</v>
+        <v>78241</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>68142</v>
+        <v>69221</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>120274</v>
+        <v>119243</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>78199</v>
+        <v>76901</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>144684</v>
+        <v>145598</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>120744</v>
+        <v>120380</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>193236</v>
+        <v>195999</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>129119</v>
+        <v>131177</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>232878</v>
+        <v>231436</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>73200</v>
+        <v>74057</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>102634</v>
+        <v>101602</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>73780</v>
+        <v>71970</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>117813</v>
+        <v>117826</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>104964</v>
+        <v>105675</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>164015</v>
+        <v>164210</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>118467</v>
+        <v>117003</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>185560</v>
+        <v>185085</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>166647</v>
+        <v>167508</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>250807</v>
+        <v>255524</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>181521</v>
+        <v>180788</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>289091</v>
+        <v>288045</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>24014</v>
+        <v>24020</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>37264</v>
+        <v>37770</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>39209</v>
+        <v>39525</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>68151</v>
+        <v>68694</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>39017</v>
+        <v>39510</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>71856</v>
+        <v>72250</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>66589</v>
+        <v>68474</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>84316</v>
+        <v>83928</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>70927</v>
+        <v>69363</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>117177</v>
+        <v>116923</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>115227</v>
+        <v>114077</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>162293</v>
+        <v>164443</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>48543</v>
+        <v>47872</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>66929</v>
+        <v>66176</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>68921</v>
+        <v>68986</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>110001</v>
+        <v>109195</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>65594</v>
+        <v>66751</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>109716</v>
+        <v>109240</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>106645</v>
+        <v>103702</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>119129</v>
+        <v>117770</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>107850</v>
+        <v>106372</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>164393</v>
+        <v>167962</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>161997</v>
+        <v>161836</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>216199</v>
+        <v>221085</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>34554</v>
+        <v>35054</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>66196</v>
+        <v>66033</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>61568</v>
+        <v>61593</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>101592</v>
+        <v>101497</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>91151</v>
+        <v>90350</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>125101</v>
+        <v>124807</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>118344</v>
+        <v>117539</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>168808</v>
+        <v>167329</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>134130</v>
+        <v>134263</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>202979</v>
+        <v>203760</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>189594</v>
+        <v>190225</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>283044</v>
+        <v>280682</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>60113</v>
+        <v>60254</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>102704</v>
+        <v>102573</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>94246</v>
+        <v>95132</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>146315</v>
+        <v>144096</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>130932</v>
+        <v>131320</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>173223</v>
+        <v>169883</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>166830</v>
+        <v>163785</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>214248</v>
+        <v>212572</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>181705</v>
+        <v>183495</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>261921</v>
+        <v>263913</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>249749</v>
+        <v>247655</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>344399</v>
+        <v>342319</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>142434</v>
+        <v>141282</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>243979</v>
+        <v>246237</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>220880</v>
+        <v>221233</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>336816</v>
+        <v>335847</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>257859</v>
+        <v>252254</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>432924</v>
+        <v>433826</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>377476</v>
+        <v>375010</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>512743</v>
+        <v>511600</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>409426</v>
+        <v>408684</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>696489</v>
+        <v>696144</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>618812</v>
+        <v>613633</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>863650</v>
+        <v>869941</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>192618</v>
+        <v>193117</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>312549</v>
+        <v>309373</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>282825</v>
+        <v>279991</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>409213</v>
+        <v>412214</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>320728</v>
+        <v>316373</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>515768</v>
+        <v>513875</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>461107</v>
+        <v>456915</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>585855</v>
+        <v>583751</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>495039</v>
+        <v>495986</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>803637</v>
+        <v>801016</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>712962</v>
+        <v>716890</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>972390</v>
+        <v>974146</v>
       </c>
     </row>
     <row r="24">
